--- a/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 6.xlsx
+++ b/Dados Testes/27-07-2022 OPC/Echo/Teste Echo Cliente - 6.xlsx
@@ -385,16 +385,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>179.9283228</v>
+        <v>66.66024000000002</v>
       </c>
       <c r="B2">
-        <v>99.74308693004745</v>
+        <v>29.36636882664249</v>
       </c>
       <c r="C2">
-        <v>93.13045999999989</v>
+        <v>59.78200000000002</v>
       </c>
       <c r="D2">
-        <v>67.21631400000123</v>
+        <v>42.36900000000004</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -402,16 +402,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>144.1099594</v>
+        <v>50.20725999999999</v>
       </c>
       <c r="B3">
-        <v>80.96540577763172</v>
+        <v>25.0642365068717</v>
       </c>
       <c r="C3">
-        <v>90.80194000000003</v>
+        <v>63.19199999999999</v>
       </c>
       <c r="D3">
-        <v>63.94195000000052</v>
+        <v>42.39200000000001</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>123.523876</v>
+        <v>61.97718</v>
       </c>
       <c r="B4">
-        <v>70.93126643891144</v>
+        <v>23.58802342858765</v>
       </c>
       <c r="C4">
-        <v>88.10116000000016</v>
+        <v>62.04999999999999</v>
       </c>
       <c r="D4">
-        <v>60.58546799999944</v>
+        <v>42.41020000000001</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -436,16 +436,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>121.3110036</v>
+        <v>49.97839999999999</v>
       </c>
       <c r="B5">
-        <v>70.00634057254798</v>
+        <v>22.17003427692434</v>
       </c>
       <c r="C5">
-        <v>87.83038000000008</v>
+        <v>61.94199999999999</v>
       </c>
       <c r="D5">
-        <v>60.45864599999931</v>
+        <v>42.3824</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -453,16 +453,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>119.8483392</v>
+        <v>50.24754</v>
       </c>
       <c r="B6">
-        <v>68.16530185597178</v>
+        <v>19.78233738384825</v>
       </c>
       <c r="C6">
-        <v>87.64641999999986</v>
+        <v>62.264</v>
       </c>
       <c r="D6">
-        <v>59.5713979999989</v>
+        <v>42.40440000000002</v>
       </c>
       <c r="E6">
         <v>32</v>
@@ -470,16 +470,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>131.994369</v>
+        <v>62.47602</v>
       </c>
       <c r="B7">
-        <v>69.57920932335193</v>
+        <v>26.90701963688286</v>
       </c>
       <c r="C7">
-        <v>88.60397999999991</v>
+        <v>60.348</v>
       </c>
       <c r="D7">
-        <v>57.42068000000224</v>
+        <v>42.4168</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>124.4818664</v>
+        <v>59.51644</v>
       </c>
       <c r="B8">
-        <v>60.7916886787179</v>
+        <v>26.48701627375949</v>
       </c>
       <c r="C8">
-        <v>87.66005999999994</v>
+        <v>61.948</v>
       </c>
       <c r="D8">
-        <v>56.71633200000223</v>
+        <v>42.40860000000001</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>122.4312184</v>
+        <v>47.18541999999999</v>
       </c>
       <c r="B9">
-        <v>58.85035258811536</v>
+        <v>23.04099155599863</v>
       </c>
       <c r="C9">
-        <v>84.47134000000038</v>
+        <v>64.58</v>
       </c>
       <c r="D9">
-        <v>54.66167599999978</v>
+        <v>42.37559999999999</v>
       </c>
       <c r="E9">
         <v>256</v>
@@ -521,16 +521,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>121.4720212</v>
+        <v>52.09520000000001</v>
       </c>
       <c r="B10">
-        <v>59.28679328630904</v>
+        <v>19.80061901254605</v>
       </c>
       <c r="C10">
-        <v>81.99348000000012</v>
+        <v>61.95400000000001</v>
       </c>
       <c r="D10">
-        <v>53.4171499999994</v>
+        <v>42.42620000000002</v>
       </c>
       <c r="E10">
         <v>512</v>
@@ -538,16 +538,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>122.5325642</v>
+        <v>55.88697999999999</v>
       </c>
       <c r="B11">
-        <v>59.05692034783289</v>
+        <v>24.55693796016922</v>
       </c>
       <c r="C11">
-        <v>79.93345999999998</v>
+        <v>61.688</v>
       </c>
       <c r="D11">
-        <v>52.58336400000114</v>
+        <v>42.42520000000001</v>
       </c>
       <c r="E11">
         <v>1024</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>127.3958872</v>
+        <v>52.69818</v>
       </c>
       <c r="B12">
-        <v>60.18760624674557</v>
+        <v>22.57816518115677</v>
       </c>
       <c r="C12">
-        <v>78.38578000000007</v>
+        <v>62.93400000000001</v>
       </c>
       <c r="D12">
-        <v>52.18598200000127</v>
+        <v>42.39540000000001</v>
       </c>
       <c r="E12">
         <v>2048</v>
@@ -572,16 +572,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>38.1855334</v>
+        <v>51.73542000000001</v>
       </c>
       <c r="B13">
-        <v>36.06410434079964</v>
+        <v>19.86996562965321</v>
       </c>
       <c r="C13">
-        <v>40.11692000000004</v>
+        <v>65.036</v>
       </c>
       <c r="D13">
-        <v>35.6294260000031</v>
+        <v>42.40600000000003</v>
       </c>
       <c r="E13">
         <v>4096</v>
@@ -589,16 +589,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28.6563646</v>
+        <v>58.84193999999999</v>
       </c>
       <c r="B14">
-        <v>9.895799350394419</v>
+        <v>29.00182748063301</v>
       </c>
       <c r="C14">
-        <v>31.15266000000006</v>
+        <v>63.58</v>
       </c>
       <c r="D14">
-        <v>32.03439399999769</v>
+        <v>42.4472</v>
       </c>
       <c r="E14">
         <v>8192</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>29.1098088</v>
+        <v>59.92056000000002</v>
       </c>
       <c r="B15">
-        <v>9.135361874356292</v>
+        <v>25.87918582193807</v>
       </c>
       <c r="C15">
-        <v>27.22570000000005</v>
+        <v>65.676</v>
       </c>
       <c r="D15">
-        <v>30.20622199999976</v>
+        <v>42.55999999999997</v>
       </c>
       <c r="E15">
         <v>16384</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>33.93753</v>
+        <v>90.54865999999998</v>
       </c>
       <c r="B16">
-        <v>9.753233390148102</v>
+        <v>45.43708357701229</v>
       </c>
       <c r="C16">
-        <v>25.17482</v>
+        <v>64.124</v>
       </c>
       <c r="D16">
-        <v>28.74928200000011</v>
+        <v>42.82860000000001</v>
       </c>
       <c r="E16">
         <v>32768</v>
